--- a/biology/Biochimie/Prostaglandine_H2/Prostaglandine_H2.xlsx
+++ b/biology/Biochimie/Prostaglandine_H2/Prostaglandine_H2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La prostaglandine H2 (PGH2) est un précurseur des prostaglandines chez les vertébrés, dérivé de l'acide arachidonique en deux étapes par des cyclooxygénases. Elle augmente l'inflammation et régule la sécrétion du suc gastrique. L'action anti-inflammatoire de l'acide acétylsalicylique (aspirine) est due à l'inhibition de la cyclooxygénase-1.
